--- a/Code/Results/Cases/Case_2_180/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_180/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7041635825062258</v>
+        <v>0.2216286755620445</v>
       </c>
       <c r="C2">
-        <v>0.09675023084500367</v>
+        <v>0.0412909592263162</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4983444657687315</v>
+        <v>0.5840244243680175</v>
       </c>
       <c r="F2">
-        <v>1.326794932987539</v>
+        <v>1.99731298947205</v>
       </c>
       <c r="G2">
-        <v>0.1982594474598187</v>
+        <v>0.3838789003033156</v>
       </c>
       <c r="H2">
-        <v>0.2106918580701986</v>
+        <v>0.5592642673829573</v>
       </c>
       <c r="I2">
-        <v>0.1766219918132457</v>
+        <v>0.4372197953413348</v>
       </c>
       <c r="J2">
-        <v>0.02249257878333388</v>
+        <v>0.03697556005308122</v>
       </c>
       <c r="K2">
-        <v>0.7343797792394611</v>
+        <v>0.2246904521999369</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6372743497717153</v>
+        <v>0.4071560036075041</v>
       </c>
       <c r="N2">
-        <v>0.6869278333572133</v>
+        <v>1.336227145389334</v>
       </c>
       <c r="O2">
-        <v>0.8103417355184774</v>
+        <v>1.829252314649167</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6153948655681063</v>
+        <v>0.1937480280025738</v>
       </c>
       <c r="C3">
-        <v>0.08728043384905249</v>
+        <v>0.03819103488517328</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4477567400284386</v>
+        <v>0.5741412698747155</v>
       </c>
       <c r="F3">
-        <v>1.227583286723117</v>
+        <v>1.985721082945687</v>
       </c>
       <c r="G3">
-        <v>0.19537406674187</v>
+        <v>0.3866318765122045</v>
       </c>
       <c r="H3">
-        <v>0.2140594255444697</v>
+        <v>0.5635022508368408</v>
       </c>
       <c r="I3">
-        <v>0.1819444524458991</v>
+        <v>0.4418819418045512</v>
       </c>
       <c r="J3">
-        <v>0.02242614681685495</v>
+        <v>0.03699285906569472</v>
       </c>
       <c r="K3">
-        <v>0.6445493591479305</v>
+        <v>0.1961039501497623</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.556681139520343</v>
+        <v>0.3860865428441684</v>
       </c>
       <c r="N3">
-        <v>0.713428441043547</v>
+        <v>1.348217457947825</v>
       </c>
       <c r="O3">
-        <v>0.8109902274069896</v>
+        <v>1.843762186799026</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5608145727694023</v>
+        <v>0.1765835849633106</v>
       </c>
       <c r="C4">
-        <v>0.08145351041146398</v>
+        <v>0.03627385120957172</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4172316031246908</v>
+        <v>0.568353215169644</v>
       </c>
       <c r="F4">
-        <v>1.168668359043565</v>
+        <v>1.979666803239056</v>
       </c>
       <c r="G4">
-        <v>0.1941114460592672</v>
+        <v>0.3885727123834712</v>
       </c>
       <c r="H4">
-        <v>0.2164625775239841</v>
+        <v>0.5663173499143426</v>
       </c>
       <c r="I4">
-        <v>0.185601140455347</v>
+        <v>0.4449611681094314</v>
       </c>
       <c r="J4">
-        <v>0.02239380695466053</v>
+        <v>0.03700854332943848</v>
       </c>
       <c r="K4">
-        <v>0.589294525449958</v>
+        <v>0.1784803255210363</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5075165181491812</v>
+        <v>0.3733054104065161</v>
       </c>
       <c r="N4">
-        <v>0.7305064964421639</v>
+        <v>1.356004353414502</v>
       </c>
       <c r="O4">
-        <v>0.8131628931718495</v>
+        <v>1.853641359435485</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5385494307215311</v>
+        <v>0.1695779595452223</v>
       </c>
       <c r="C5">
-        <v>0.07907533329639449</v>
+        <v>0.03548915337053415</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4049169117853424</v>
+        <v>0.5660651016394667</v>
       </c>
       <c r="F5">
-        <v>1.145133504724711</v>
+        <v>1.977467152124746</v>
       </c>
       <c r="G5">
-        <v>0.1937191368706337</v>
+        <v>0.3894265742964933</v>
       </c>
       <c r="H5">
-        <v>0.217523770121268</v>
+        <v>0.5675181223228734</v>
       </c>
       <c r="I5">
-        <v>0.1871858209587174</v>
+        <v>0.4462704568998141</v>
       </c>
       <c r="J5">
-        <v>0.02238273168065419</v>
+        <v>0.03701621282080403</v>
       </c>
       <c r="K5">
-        <v>0.5667486505116841</v>
+        <v>0.1712810798258602</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4875524640209576</v>
+        <v>0.3681363942729305</v>
       </c>
       <c r="N5">
-        <v>0.7376642310535395</v>
+        <v>1.3592844524395</v>
       </c>
       <c r="O5">
-        <v>0.8144770640345342</v>
+        <v>1.857911149801538</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.534850801822671</v>
+        <v>0.1684140324311443</v>
       </c>
       <c r="C6">
-        <v>0.07868020294927902</v>
+        <v>0.03535864904728214</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4028793004462017</v>
+        <v>0.5656894269836314</v>
       </c>
       <c r="F6">
-        <v>1.14125331110354</v>
+        <v>1.977118064057009</v>
       </c>
       <c r="G6">
-        <v>0.1936612116128416</v>
+        <v>0.3895721587783285</v>
       </c>
       <c r="H6">
-        <v>0.2177048561619941</v>
+        <v>0.5677207481337589</v>
       </c>
       <c r="I6">
-        <v>0.1874545758109729</v>
+        <v>0.4464911537333425</v>
       </c>
       <c r="J6">
-        <v>0.02238101907666135</v>
+        <v>0.03701756366996989</v>
       </c>
       <c r="K6">
-        <v>0.5630030484074382</v>
+        <v>0.1700846091434585</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4842414629823892</v>
+        <v>0.3672804706902397</v>
       </c>
       <c r="N6">
-        <v>0.7388646147842195</v>
+        <v>1.359835567158758</v>
       </c>
       <c r="O6">
-        <v>0.8147206836301422</v>
+        <v>1.858634879649884</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5605143966184016</v>
+        <v>0.176489148433518</v>
       </c>
       <c r="C7">
-        <v>0.08142145297459535</v>
+        <v>0.03626328232768827</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4170650317142872</v>
+        <v>0.5683220710247241</v>
       </c>
       <c r="F7">
-        <v>1.168349081122784</v>
+        <v>1.979636054588255</v>
       </c>
       <c r="G7">
-        <v>0.1941056678380306</v>
+        <v>0.3885839730047209</v>
       </c>
       <c r="H7">
-        <v>0.2164765607524473</v>
+        <v>0.5663333268795157</v>
       </c>
       <c r="I7">
-        <v>0.1856221332956256</v>
+        <v>0.4449786050510465</v>
       </c>
       <c r="J7">
-        <v>0.02239364910023411</v>
+        <v>0.03700864158165373</v>
       </c>
       <c r="K7">
-        <v>0.5889905871271566</v>
+        <v>0.1783833041007767</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5072470009753474</v>
+        <v>0.3732355393619642</v>
       </c>
       <c r="N7">
-        <v>0.7306022311322558</v>
+        <v>1.356048157162736</v>
       </c>
       <c r="O7">
-        <v>0.813178902858624</v>
+        <v>1.853697955562154</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6735693004003735</v>
+        <v>0.2120251832759266</v>
       </c>
       <c r="C8">
-        <v>0.09348728992176802</v>
+        <v>0.04022499903136634</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4807842595249809</v>
+        <v>0.5805586020276507</v>
       </c>
       <c r="F8">
-        <v>1.292152938404413</v>
+        <v>1.993095524910444</v>
       </c>
       <c r="G8">
-        <v>0.1971553688299394</v>
+        <v>0.3847761149543132</v>
       </c>
       <c r="H8">
-        <v>0.2117818573127934</v>
+        <v>0.5606813519504357</v>
       </c>
       <c r="I8">
-        <v>0.1783745512005606</v>
+        <v>0.4387823385538834</v>
       </c>
       <c r="J8">
-        <v>0.02246790627003392</v>
+        <v>0.0369804769848745</v>
       </c>
       <c r="K8">
-        <v>0.703424023925848</v>
+        <v>0.214848922835273</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.609413499694746</v>
+        <v>0.3998591144669916</v>
       </c>
       <c r="N8">
-        <v>0.6958950551742618</v>
+        <v>1.340273274237727</v>
       </c>
       <c r="O8">
-        <v>0.8101863273167282</v>
+        <v>1.83405399531199</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8948763657951986</v>
+        <v>0.2813308443734286</v>
       </c>
       <c r="C9">
-        <v>0.11707673803879</v>
+        <v>0.04788265929248325</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6104832387519821</v>
+        <v>0.6067756362032242</v>
       </c>
       <c r="F9">
-        <v>1.552241837525827</v>
+        <v>2.027922141009654</v>
       </c>
       <c r="G9">
-        <v>0.2074476107363665</v>
+        <v>0.3792982696475988</v>
       </c>
       <c r="H9">
-        <v>0.2053534338809371</v>
+        <v>0.5512855600512765</v>
       </c>
       <c r="I9">
-        <v>0.1673955232236075</v>
+        <v>0.4283504181622284</v>
       </c>
       <c r="J9">
-        <v>0.02268158342239346</v>
+        <v>0.03696520495451594</v>
       </c>
       <c r="K9">
-        <v>0.9272626395946588</v>
+        <v>0.2857736620088929</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8127642577019358</v>
+        <v>0.4532934459259934</v>
       </c>
       <c r="N9">
-        <v>0.6344460472869464</v>
+        <v>1.312706456831034</v>
       </c>
       <c r="O9">
-        <v>0.8192203362888932</v>
+        <v>1.803228893651394</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.057555853246413</v>
+        <v>0.3319977371591847</v>
       </c>
       <c r="C10">
-        <v>0.1344063074980824</v>
+        <v>0.05343924960854451</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.7094031825268985</v>
+        <v>0.6273910283072439</v>
       </c>
       <c r="F10">
-        <v>1.756000644818187</v>
+        <v>2.058651406694267</v>
       </c>
       <c r="G10">
-        <v>0.2180364972837623</v>
+        <v>0.3764892426284803</v>
       </c>
       <c r="H10">
-        <v>0.2024933823907702</v>
+        <v>0.5454086159169691</v>
       </c>
       <c r="I10">
-        <v>0.1615172068275719</v>
+        <v>0.4217338314399726</v>
       </c>
       <c r="J10">
-        <v>0.02288156000671648</v>
+        <v>0.03697807374773809</v>
       </c>
       <c r="K10">
-        <v>1.09170999385455</v>
+        <v>0.3375068850252489</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9646947248248665</v>
+        <v>0.493290909506932</v>
       </c>
       <c r="N10">
-        <v>0.5936359507646927</v>
+        <v>1.294501766909942</v>
       </c>
       <c r="O10">
-        <v>0.8361432466317211</v>
+        <v>1.785274251058311</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.131659548880776</v>
+        <v>0.3549887254171438</v>
       </c>
       <c r="C11">
-        <v>0.1422998989275328</v>
+        <v>0.05595167297863668</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.7553688215092649</v>
+        <v>0.6370635470384798</v>
       </c>
       <c r="F11">
-        <v>1.851950592132511</v>
+        <v>2.07374819325878</v>
       </c>
       <c r="G11">
-        <v>0.2236044399932027</v>
+        <v>0.3754759078198759</v>
       </c>
       <c r="H11">
-        <v>0.2016365523076757</v>
+        <v>0.5429572908247806</v>
       </c>
       <c r="I11">
-        <v>0.1593687058865498</v>
+        <v>0.4189512524290073</v>
       </c>
       <c r="J11">
-        <v>0.02298221672973355</v>
+        <v>0.03698910217239337</v>
       </c>
       <c r="K11">
-        <v>1.166601217967383</v>
+        <v>0.3609564478454104</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.03452780052254</v>
+        <v>0.5116458888464592</v>
       </c>
       <c r="N11">
-        <v>0.5760835651011007</v>
+        <v>1.286663920397153</v>
       </c>
       <c r="O11">
-        <v>0.8463569519680902</v>
+        <v>1.778125351365063</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.159741700671702</v>
+        <v>0.3636860824847474</v>
       </c>
       <c r="C12">
-        <v>0.1452913716564552</v>
+        <v>0.05690082362734472</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.77292944545529</v>
+        <v>0.6407685689507616</v>
       </c>
       <c r="F12">
-        <v>1.888797676218473</v>
+        <v>2.079625637910695</v>
       </c>
       <c r="G12">
-        <v>0.2258291454875305</v>
+        <v>0.3751302653977078</v>
       </c>
       <c r="H12">
-        <v>0.20137950917956</v>
+        <v>0.5420609367124314</v>
       </c>
       <c r="I12">
-        <v>0.1586351915160336</v>
+        <v>0.417930256288443</v>
       </c>
       <c r="J12">
-        <v>0.02302175548015306</v>
+        <v>0.03699401747990905</v>
       </c>
       <c r="K12">
-        <v>1.194979498650412</v>
+        <v>0.3698236612328856</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.061089855364436</v>
+        <v>0.5186192205147293</v>
       </c>
       <c r="N12">
-        <v>0.5695889332857469</v>
+        <v>1.283759666410507</v>
       </c>
       <c r="O12">
-        <v>0.8506112973312554</v>
+        <v>1.775564757228665</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.153692681170583</v>
+        <v>0.3618133524437894</v>
       </c>
       <c r="C13">
-        <v>0.1446469858514376</v>
+        <v>0.05669650789555192</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7691403239820715</v>
+        <v>0.6399687486880339</v>
       </c>
       <c r="F13">
-        <v>1.880838446982366</v>
+        <v>2.078352683576554</v>
       </c>
       <c r="G13">
-        <v>0.2253447084515514</v>
+        <v>0.375203011026791</v>
       </c>
       <c r="H13">
-        <v>0.2014318107802779</v>
+        <v>0.5422525639315552</v>
       </c>
       <c r="I13">
-        <v>0.1587895310962608</v>
+        <v>0.4181486912223136</v>
       </c>
       <c r="J13">
-        <v>0.0230131763637953</v>
+        <v>0.03699292608868276</v>
       </c>
       <c r="K13">
-        <v>1.188866790186182</v>
+        <v>0.3679145181730803</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.055363762954791</v>
+        <v>0.5171163839783617</v>
       </c>
       <c r="N13">
-        <v>0.5709807972484739</v>
+        <v>1.284382313564919</v>
       </c>
       <c r="O13">
-        <v>0.8496774389023045</v>
+        <v>1.776109708950116</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.133969431945047</v>
+        <v>0.3557044423199613</v>
       </c>
       <c r="C14">
-        <v>0.1425459570735939</v>
+        <v>0.05602980554428427</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.7568103569017808</v>
+        <v>0.6373675152396174</v>
       </c>
       <c r="F14">
-        <v>1.854971479606832</v>
+        <v>2.074228515880023</v>
       </c>
       <c r="G14">
-        <v>0.2237850890340454</v>
+        <v>0.3754467080361579</v>
       </c>
       <c r="H14">
-        <v>0.2016140329609044</v>
+        <v>0.542882907900605</v>
       </c>
       <c r="I14">
-        <v>0.1593067276644398</v>
+        <v>0.4188665988963685</v>
       </c>
       <c r="J14">
-        <v>0.02298544092896293</v>
+        <v>0.03698949177385913</v>
       </c>
       <c r="K14">
-        <v>1.168935503743626</v>
+        <v>0.3616862149170004</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.036710630106477</v>
+        <v>0.5122191358255606</v>
       </c>
       <c r="N14">
-        <v>0.5755461614130226</v>
+        <v>1.286423707736688</v>
       </c>
       <c r="O14">
-        <v>0.8466990625287281</v>
+        <v>1.777911752639881</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.121891261991948</v>
+        <v>0.3519613922719316</v>
       </c>
       <c r="C15">
-        <v>0.1412593479777513</v>
+        <v>0.05562113666817936</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7492784861602644</v>
+        <v>0.6357796838535705</v>
       </c>
       <c r="F15">
-        <v>1.839195379254164</v>
+        <v>2.071723257507074</v>
       </c>
       <c r="G15">
-        <v>0.2228451693401894</v>
+        <v>0.3756009408164118</v>
       </c>
       <c r="H15">
-        <v>0.2017345381704487</v>
+        <v>0.543273166396915</v>
       </c>
       <c r="I15">
-        <v>0.1596340917899362</v>
+        <v>0.4193105978259872</v>
       </c>
       <c r="J15">
-        <v>0.02296863828990325</v>
+        <v>0.03698748425929566</v>
       </c>
       <c r="K15">
-        <v>1.156729642450671</v>
+        <v>0.3578695392448878</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.025300831139369</v>
+        <v>0.5092223771690669</v>
       </c>
       <c r="N15">
-        <v>0.5783625829820949</v>
+        <v>1.287682424738314</v>
       </c>
       <c r="O15">
-        <v>0.8449258383063665</v>
+        <v>1.77903464140573</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.052715543702391</v>
+        <v>0.3304940157851206</v>
       </c>
       <c r="C16">
-        <v>0.133890721727397</v>
+        <v>0.05327474474900384</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.7064199633582007</v>
+        <v>0.6267648238295322</v>
       </c>
       <c r="F16">
-        <v>1.749799385971173</v>
+        <v>2.057687279737607</v>
       </c>
       <c r="G16">
-        <v>0.2176884254387446</v>
+        <v>0.3765607932472008</v>
       </c>
       <c r="H16">
-        <v>0.2025586149611414</v>
+        <v>0.545573282784531</v>
       </c>
       <c r="I16">
-        <v>0.1616685710585166</v>
+        <v>0.4219202554565129</v>
       </c>
       <c r="J16">
-        <v>0.02287517923954496</v>
+        <v>0.03697745670934616</v>
       </c>
       <c r="K16">
-        <v>1.086817907250605</v>
+        <v>0.3359726627035968</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9601466451371081</v>
+        <v>0.4920945611745253</v>
       </c>
       <c r="N16">
-        <v>0.5948039586175717</v>
+        <v>1.295022912824891</v>
       </c>
       <c r="O16">
-        <v>0.8355284696191063</v>
+        <v>1.785761952151987</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.010308438854992</v>
+        <v>0.3173093271697667</v>
       </c>
       <c r="C17">
-        <v>0.1293735329842463</v>
+        <v>0.05183135580946896</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.680385828832641</v>
+        <v>0.6213098528073857</v>
       </c>
       <c r="F17">
-        <v>1.695823112208146</v>
+        <v>2.049362886905357</v>
       </c>
       <c r="G17">
-        <v>0.2147229972011786</v>
+        <v>0.3772174135227573</v>
       </c>
       <c r="H17">
-        <v>0.2031803877991436</v>
+        <v>0.5470411987081292</v>
       </c>
       <c r="I17">
-        <v>0.1630543910736151</v>
+        <v>0.423579433656613</v>
       </c>
       <c r="J17">
-        <v>0.02282034643010178</v>
+        <v>0.03697262686115188</v>
       </c>
       <c r="K17">
-        <v>1.043955214546941</v>
+        <v>0.3225177122496916</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.920370755137597</v>
+        <v>0.4816279511189521</v>
       </c>
       <c r="N17">
-        <v>0.6051540032962315</v>
+        <v>1.299639659187768</v>
       </c>
       <c r="O17">
-        <v>0.8304250056240647</v>
+        <v>1.790149898314198</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9859259999257404</v>
+        <v>0.309720450542784</v>
       </c>
       <c r="C18">
-        <v>0.1267762776036534</v>
+        <v>0.05099971977332984</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6655016607345345</v>
+        <v>0.6182000207545855</v>
       </c>
       <c r="F18">
-        <v>1.665081317868868</v>
+        <v>2.044680145339782</v>
       </c>
       <c r="G18">
-        <v>0.2130875266813277</v>
+        <v>0.3776199777121079</v>
       </c>
       <c r="H18">
-        <v>0.203579602926574</v>
+        <v>0.5479064145928092</v>
       </c>
       <c r="I18">
-        <v>0.1639006633905531</v>
+        <v>0.4245551464446464</v>
       </c>
       <c r="J18">
-        <v>0.02278971792778606</v>
+        <v>0.03697033619242518</v>
       </c>
       <c r="K18">
-        <v>1.019309142692862</v>
+        <v>0.3147708925216079</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.897559484161917</v>
+        <v>0.4756229053727168</v>
       </c>
       <c r="N18">
-        <v>0.611201949696504</v>
+        <v>1.302336840120944</v>
       </c>
       <c r="O18">
-        <v>0.8277248091913094</v>
+        <v>1.792769616606833</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9776718868496346</v>
+        <v>0.3071500777117535</v>
       </c>
       <c r="C19">
-        <v>0.1258970231093741</v>
+        <v>0.05071789683171346</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.6604771380948051</v>
+        <v>0.6171518494240615</v>
       </c>
       <c r="F19">
-        <v>1.654723575056963</v>
+        <v>2.043112726691405</v>
       </c>
       <c r="G19">
-        <v>0.2125455920193104</v>
+        <v>0.377760552997799</v>
       </c>
       <c r="H19">
-        <v>0.2037218086334818</v>
+        <v>0.5482029540259177</v>
       </c>
       <c r="I19">
-        <v>0.164195511366902</v>
+        <v>0.4248891805917765</v>
       </c>
       <c r="J19">
-        <v>0.02277950304743293</v>
+        <v>0.03696964446225692</v>
       </c>
       <c r="K19">
-        <v>1.010965486024389</v>
+        <v>0.312146613773109</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8898470262334044</v>
+        <v>0.4735922977013445</v>
       </c>
       <c r="N19">
-        <v>0.6132657830819994</v>
+        <v>1.303257230423871</v>
       </c>
       <c r="O19">
-        <v>0.8268502264791522</v>
+        <v>1.793673075699914</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.01482177116489</v>
+        <v>0.3187134218159997</v>
       </c>
       <c r="C20">
-        <v>0.1298542950211754</v>
+        <v>0.05198515610076981</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6831477861746578</v>
+        <v>0.6218876752516991</v>
       </c>
       <c r="F20">
-        <v>1.70153721197866</v>
+        <v>2.050238142874377</v>
       </c>
       <c r="G20">
-        <v>0.2150313520510778</v>
+        <v>0.3771449384190291</v>
       </c>
       <c r="H20">
-        <v>0.2031098698675535</v>
+        <v>0.5468827727332481</v>
       </c>
       <c r="I20">
-        <v>0.1629017459065309</v>
+        <v>0.4234005966483707</v>
       </c>
       <c r="J20">
-        <v>0.02282608909986905</v>
+        <v>0.03697309060584075</v>
       </c>
       <c r="K20">
-        <v>1.048517207494768</v>
+        <v>0.3239508349083451</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9245979553868651</v>
+        <v>0.4827405819421315</v>
       </c>
       <c r="N20">
-        <v>0.6040423583031789</v>
+        <v>1.299143877745891</v>
       </c>
       <c r="O20">
-        <v>0.830943761954444</v>
+        <v>1.789672869622052</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.139762014213261</v>
+        <v>0.3574990213109857</v>
       </c>
       <c r="C21">
-        <v>0.1431630093871945</v>
+        <v>0.05622569363448804</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7604276469405562</v>
+        <v>0.6381304146997877</v>
       </c>
       <c r="F21">
-        <v>1.862554946223185</v>
+        <v>2.075435525802732</v>
       </c>
       <c r="G21">
-        <v>0.2242399638924653</v>
+        <v>0.3753740942930648</v>
       </c>
       <c r="H21">
-        <v>0.2015586508302505</v>
+        <v>0.5426968948361122</v>
       </c>
       <c r="I21">
-        <v>0.1591526040888667</v>
+        <v>0.4186548442554496</v>
       </c>
       <c r="J21">
-        <v>0.0229935486575723</v>
+        <v>0.03699048049663034</v>
       </c>
       <c r="K21">
-        <v>1.174789245694512</v>
+        <v>0.3635159654625681</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.042186190969197</v>
+        <v>0.5136569626509839</v>
       </c>
       <c r="N21">
-        <v>0.5742010222965099</v>
+        <v>1.285822370234754</v>
       </c>
       <c r="O21">
-        <v>0.8475631844192577</v>
+        <v>1.777378471359128</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.221541549554672</v>
+        <v>0.3827959256472013</v>
       </c>
       <c r="C22">
-        <v>0.151875122187846</v>
+        <v>0.05898399484820516</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.8118426766286433</v>
+        <v>0.6489921984821763</v>
       </c>
       <c r="F22">
-        <v>1.970801851716658</v>
+        <v>2.092839621674187</v>
       </c>
       <c r="G22">
-        <v>0.2309400957421559</v>
+        <v>0.3744387593880205</v>
       </c>
       <c r="H22">
-        <v>0.2009396165204365</v>
+        <v>0.5401471599818919</v>
       </c>
       <c r="I22">
-        <v>0.1571713485953161</v>
+        <v>0.4157438640927111</v>
       </c>
       <c r="J22">
-        <v>0.02311129785004162</v>
+        <v>0.03700615142203034</v>
       </c>
       <c r="K22">
-        <v>1.257427168634877</v>
+        <v>0.3893002200619549</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.11973088078868</v>
+        <v>0.5339947745230944</v>
       </c>
       <c r="N22">
-        <v>0.5555876906288084</v>
+        <v>1.277487680698336</v>
       </c>
       <c r="O22">
-        <v>0.8606912364111707</v>
+        <v>1.770197532521479</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.177880732007424</v>
+        <v>0.3692994041991255</v>
       </c>
       <c r="C23">
-        <v>0.1472237093730939</v>
+        <v>0.05751305589080857</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7843129990809956</v>
+        <v>0.6431725632277647</v>
       </c>
       <c r="F23">
-        <v>1.912737350404527</v>
+        <v>2.083465114380445</v>
       </c>
       <c r="G23">
-        <v>0.227298867077657</v>
+        <v>0.3749176345733218</v>
       </c>
       <c r="H23">
-        <v>0.2012326570260186</v>
+        <v>0.5414909949297737</v>
       </c>
       <c r="I23">
-        <v>0.158184310266325</v>
+        <v>0.4172800601568873</v>
       </c>
       <c r="J23">
-        <v>0.02304768287942061</v>
+        <v>0.03699739523493406</v>
       </c>
       <c r="K23">
-        <v>1.213309201308903</v>
+        <v>0.3755456093512635</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.078275293801298</v>
+        <v>0.5231281069726492</v>
       </c>
       <c r="N23">
-        <v>0.5654383195156356</v>
+        <v>1.281902056378481</v>
       </c>
       <c r="O23">
-        <v>0.853468542196353</v>
+        <v>1.773951964865802</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.012781300420642</v>
+        <v>0.3180786580693393</v>
       </c>
       <c r="C24">
-        <v>0.1296369433890021</v>
+        <v>0.05191562863180366</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6818988472578411</v>
+        <v>0.6216263597842868</v>
       </c>
       <c r="F24">
-        <v>1.698952967858446</v>
+        <v>2.04984211860706</v>
       </c>
       <c r="G24">
-        <v>0.2148917292959069</v>
+        <v>0.3771776263431548</v>
       </c>
       <c r="H24">
-        <v>0.2031416212489603</v>
+        <v>0.546954330792353</v>
       </c>
       <c r="I24">
-        <v>0.1629706027993478</v>
+        <v>0.4234813808649349</v>
       </c>
       <c r="J24">
-        <v>0.02282349005150763</v>
+        <v>0.03697287943241001</v>
       </c>
       <c r="K24">
-        <v>1.046454742623297</v>
+        <v>0.3233029555914015</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9226866634986592</v>
+        <v>0.4822375230625866</v>
       </c>
       <c r="N24">
-        <v>0.6045446295901336</v>
+        <v>1.299367886741639</v>
       </c>
       <c r="O24">
-        <v>0.8307085056851093</v>
+        <v>1.789888232056725</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8350167726175926</v>
+        <v>0.2626246273538015</v>
       </c>
       <c r="C25">
-        <v>0.1106986860814345</v>
+        <v>0.04582314262491138</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5748150076298089</v>
+        <v>0.5994454739745123</v>
       </c>
       <c r="F25">
-        <v>1.479816978335549</v>
+        <v>2.017597699561151</v>
       </c>
       <c r="G25">
-        <v>0.2041618581855644</v>
+        <v>0.3805669090216526</v>
       </c>
       <c r="H25">
-        <v>0.206778183402939</v>
+        <v>0.5536469729351978</v>
       </c>
       <c r="I25">
-        <v>0.1699977909405455</v>
+        <v>0.4309885222247338</v>
       </c>
       <c r="J25">
-        <v>0.02261634129010659</v>
+        <v>0.03696508657959541</v>
       </c>
       <c r="K25">
-        <v>0.8667353682862995</v>
+        <v>0.266651154054756</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7573616929920561</v>
+        <v>0.4387076486925992</v>
       </c>
       <c r="N25">
-        <v>0.650331273074201</v>
+        <v>1.319803939894804</v>
       </c>
       <c r="O25">
-        <v>0.8150610518885628</v>
+        <v>1.81074387181603</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_180/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_180/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2216286755620445</v>
+        <v>0.7041635825062258</v>
       </c>
       <c r="C2">
-        <v>0.0412909592263162</v>
+        <v>0.09675023084498946</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5840244243680175</v>
+        <v>0.4983444657687386</v>
       </c>
       <c r="F2">
-        <v>1.99731298947205</v>
+        <v>1.326794932987553</v>
       </c>
       <c r="G2">
-        <v>0.3838789003033156</v>
+        <v>0.1982594474598187</v>
       </c>
       <c r="H2">
-        <v>0.5592642673829573</v>
+        <v>0.2106918580701986</v>
       </c>
       <c r="I2">
-        <v>0.4372197953413348</v>
+        <v>0.1766219918132297</v>
       </c>
       <c r="J2">
-        <v>0.03697556005308122</v>
+        <v>0.02249257878346711</v>
       </c>
       <c r="K2">
-        <v>0.2246904521999369</v>
+        <v>0.7343797792394184</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4071560036075041</v>
+        <v>0.6372743497716939</v>
       </c>
       <c r="N2">
-        <v>1.336227145389334</v>
+        <v>0.6869278333572737</v>
       </c>
       <c r="O2">
-        <v>1.829252314649167</v>
+        <v>0.8103417355184348</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1937480280025738</v>
+        <v>0.6153948655681916</v>
       </c>
       <c r="C3">
-        <v>0.03819103488517328</v>
+        <v>0.08728043384948592</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5741412698747155</v>
+        <v>0.4477567400284315</v>
       </c>
       <c r="F3">
-        <v>1.985721082945687</v>
+        <v>1.227583286723132</v>
       </c>
       <c r="G3">
-        <v>0.3866318765122045</v>
+        <v>0.1953740667418771</v>
       </c>
       <c r="H3">
-        <v>0.5635022508368408</v>
+        <v>0.2140594255444626</v>
       </c>
       <c r="I3">
-        <v>0.4418819418045512</v>
+        <v>0.1819444524458849</v>
       </c>
       <c r="J3">
-        <v>0.03699285906569472</v>
+        <v>0.02242614681689048</v>
       </c>
       <c r="K3">
-        <v>0.1961039501497623</v>
+        <v>0.6445493591479732</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3860865428441684</v>
+        <v>0.5566811395203572</v>
       </c>
       <c r="N3">
-        <v>1.348217457947825</v>
+        <v>0.7134284410434866</v>
       </c>
       <c r="O3">
-        <v>1.843762186799026</v>
+        <v>0.8109902274069754</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1765835849633106</v>
+        <v>0.560814572769317</v>
       </c>
       <c r="C4">
-        <v>0.03627385120957172</v>
+        <v>0.08145351041099502</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.568353215169644</v>
+        <v>0.4172316031246694</v>
       </c>
       <c r="F4">
-        <v>1.979666803239056</v>
+        <v>1.168668359043565</v>
       </c>
       <c r="G4">
-        <v>0.3885727123834712</v>
+        <v>0.1941114460592459</v>
       </c>
       <c r="H4">
-        <v>0.5663173499143426</v>
+        <v>0.2164625775238775</v>
       </c>
       <c r="I4">
-        <v>0.4449611681094314</v>
+        <v>0.1856011404553346</v>
       </c>
       <c r="J4">
-        <v>0.03700854332943848</v>
+        <v>0.02239380695463211</v>
       </c>
       <c r="K4">
-        <v>0.1784803255210363</v>
+        <v>0.5892945254498301</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3733054104065161</v>
+        <v>0.5075165181491812</v>
       </c>
       <c r="N4">
-        <v>1.356004353414502</v>
+        <v>0.7305064964421781</v>
       </c>
       <c r="O4">
-        <v>1.853641359435485</v>
+        <v>0.8131628931718353</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1695779595452223</v>
+        <v>0.5385494307216447</v>
       </c>
       <c r="C5">
-        <v>0.03548915337053415</v>
+        <v>0.07907533329638738</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5660651016394667</v>
+        <v>0.4049169117853424</v>
       </c>
       <c r="F5">
-        <v>1.977467152124746</v>
+        <v>1.145133504724697</v>
       </c>
       <c r="G5">
-        <v>0.3894265742964933</v>
+        <v>0.1937191368706266</v>
       </c>
       <c r="H5">
-        <v>0.5675181223228734</v>
+        <v>0.2175237701212609</v>
       </c>
       <c r="I5">
-        <v>0.4462704568998141</v>
+        <v>0.1871858209587138</v>
       </c>
       <c r="J5">
-        <v>0.03701621282080403</v>
+        <v>0.02238273168062399</v>
       </c>
       <c r="K5">
-        <v>0.1712810798258602</v>
+        <v>0.5667486505116983</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3681363942729305</v>
+        <v>0.4875524640209505</v>
       </c>
       <c r="N5">
-        <v>1.3592844524395</v>
+        <v>0.7376642310535395</v>
       </c>
       <c r="O5">
-        <v>1.857911149801538</v>
+        <v>0.8144770640345342</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1684140324311443</v>
+        <v>0.534850801822671</v>
       </c>
       <c r="C6">
-        <v>0.03535864904728214</v>
+        <v>0.07868020294922218</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5656894269836314</v>
+        <v>0.4028793004461946</v>
       </c>
       <c r="F6">
-        <v>1.977118064057009</v>
+        <v>1.14125331110354</v>
       </c>
       <c r="G6">
-        <v>0.3895721587783285</v>
+        <v>0.1936612116128344</v>
       </c>
       <c r="H6">
-        <v>0.5677207481337589</v>
+        <v>0.2177048561620012</v>
       </c>
       <c r="I6">
-        <v>0.4464911537333425</v>
+        <v>0.1874545758109729</v>
       </c>
       <c r="J6">
-        <v>0.03701756366996989</v>
+        <v>0.0223810190766045</v>
       </c>
       <c r="K6">
-        <v>0.1700846091434585</v>
+        <v>0.5630030484073814</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3672804706902397</v>
+        <v>0.4842414629823892</v>
       </c>
       <c r="N6">
-        <v>1.359835567158758</v>
+        <v>0.7388646147842159</v>
       </c>
       <c r="O6">
-        <v>1.858634879649884</v>
+        <v>0.8147206836300853</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.176489148433518</v>
+        <v>0.5605143966184301</v>
       </c>
       <c r="C7">
-        <v>0.03626328232768827</v>
+        <v>0.08142145297468062</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5683220710247241</v>
+        <v>0.4170650317143156</v>
       </c>
       <c r="F7">
-        <v>1.979636054588255</v>
+        <v>1.168349081122813</v>
       </c>
       <c r="G7">
-        <v>0.3885839730047209</v>
+        <v>0.1941056678380448</v>
       </c>
       <c r="H7">
-        <v>0.5663333268795157</v>
+        <v>0.2164765607523478</v>
       </c>
       <c r="I7">
-        <v>0.4449786050510465</v>
+        <v>0.1856221332956274</v>
       </c>
       <c r="J7">
-        <v>0.03700864158165373</v>
+        <v>0.02239364910028918</v>
       </c>
       <c r="K7">
-        <v>0.1783833041007767</v>
+        <v>0.5889905871270855</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3732355393619642</v>
+        <v>0.5072470009753545</v>
       </c>
       <c r="N7">
-        <v>1.356048157162736</v>
+        <v>0.7306022311322664</v>
       </c>
       <c r="O7">
-        <v>1.853697955562154</v>
+        <v>0.8131789028586809</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2120251832759266</v>
+        <v>0.6735693004004304</v>
       </c>
       <c r="C8">
-        <v>0.04022499903136634</v>
+        <v>0.09348728992148381</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5805586020276507</v>
+        <v>0.4807842595249809</v>
       </c>
       <c r="F8">
-        <v>1.993095524910444</v>
+        <v>1.292152938404428</v>
       </c>
       <c r="G8">
-        <v>0.3847761149543132</v>
+        <v>0.1971553688300531</v>
       </c>
       <c r="H8">
-        <v>0.5606813519504357</v>
+        <v>0.2117818573127934</v>
       </c>
       <c r="I8">
-        <v>0.4387823385538834</v>
+        <v>0.1783745512005819</v>
       </c>
       <c r="J8">
-        <v>0.0369804769848745</v>
+        <v>0.02246790627009787</v>
       </c>
       <c r="K8">
-        <v>0.214848922835273</v>
+        <v>0.703424023925777</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3998591144669916</v>
+        <v>0.609413499694746</v>
       </c>
       <c r="N8">
-        <v>1.340273274237727</v>
+        <v>0.6958950551742724</v>
       </c>
       <c r="O8">
-        <v>1.83405399531199</v>
+        <v>0.8101863273166856</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2813308443734286</v>
+        <v>0.8948763657951133</v>
       </c>
       <c r="C9">
-        <v>0.04788265929248325</v>
+        <v>0.11707673803879</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6067756362032242</v>
+        <v>0.6104832387519963</v>
       </c>
       <c r="F9">
-        <v>2.027922141009654</v>
+        <v>1.552241837525827</v>
       </c>
       <c r="G9">
-        <v>0.3792982696475988</v>
+        <v>0.2074476107362528</v>
       </c>
       <c r="H9">
-        <v>0.5512855600512765</v>
+        <v>0.2053534338809371</v>
       </c>
       <c r="I9">
-        <v>0.4283504181622284</v>
+        <v>0.1673955232236075</v>
       </c>
       <c r="J9">
-        <v>0.03696520495451594</v>
+        <v>0.02268158342245385</v>
       </c>
       <c r="K9">
-        <v>0.2857736620088929</v>
+        <v>0.927262639594602</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4532934459259934</v>
+        <v>0.8127642577019429</v>
       </c>
       <c r="N9">
-        <v>1.312706456831034</v>
+        <v>0.6344460472869962</v>
       </c>
       <c r="O9">
-        <v>1.803228893651394</v>
+        <v>0.8192203362889359</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3319977371591847</v>
+        <v>1.057555853246384</v>
       </c>
       <c r="C10">
-        <v>0.05343924960854451</v>
+        <v>0.1344063074981534</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6273910283072439</v>
+        <v>0.7094031825269269</v>
       </c>
       <c r="F10">
-        <v>2.058651406694267</v>
+        <v>1.756000644818172</v>
       </c>
       <c r="G10">
-        <v>0.3764892426284803</v>
+        <v>0.2180364972837481</v>
       </c>
       <c r="H10">
-        <v>0.5454086159169691</v>
+        <v>0.2024933823907702</v>
       </c>
       <c r="I10">
-        <v>0.4217338314399726</v>
+        <v>0.1615172068275719</v>
       </c>
       <c r="J10">
-        <v>0.03697807374773809</v>
+        <v>0.02288156000671826</v>
       </c>
       <c r="K10">
-        <v>0.3375068850252489</v>
+        <v>1.091709993854579</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.493290909506932</v>
+        <v>0.9646947248248878</v>
       </c>
       <c r="N10">
-        <v>1.294501766909942</v>
+        <v>0.5936359507646287</v>
       </c>
       <c r="O10">
-        <v>1.785274251058311</v>
+        <v>0.8361432466317211</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3549887254171438</v>
+        <v>1.131659548880663</v>
       </c>
       <c r="C11">
-        <v>0.05595167297863668</v>
+        <v>0.1422998989274333</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6370635470384798</v>
+        <v>0.7553688215092507</v>
       </c>
       <c r="F11">
-        <v>2.07374819325878</v>
+        <v>1.851950592132511</v>
       </c>
       <c r="G11">
-        <v>0.3754759078198759</v>
+        <v>0.2236044399931387</v>
       </c>
       <c r="H11">
-        <v>0.5429572908247806</v>
+        <v>0.2016365523077894</v>
       </c>
       <c r="I11">
-        <v>0.4189512524290073</v>
+        <v>0.1593687058865321</v>
       </c>
       <c r="J11">
-        <v>0.03698910217239337</v>
+        <v>0.02298221672979217</v>
       </c>
       <c r="K11">
-        <v>0.3609564478454104</v>
+        <v>1.166601217967411</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5116458888464592</v>
+        <v>1.034527800522532</v>
       </c>
       <c r="N11">
-        <v>1.286663920397153</v>
+        <v>0.5760835651011575</v>
       </c>
       <c r="O11">
-        <v>1.778125351365063</v>
+        <v>0.846356951968076</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3636860824847474</v>
+        <v>1.159741700671731</v>
       </c>
       <c r="C12">
-        <v>0.05690082362734472</v>
+        <v>0.1452913716564694</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6407685689507616</v>
+        <v>0.77292944545529</v>
       </c>
       <c r="F12">
-        <v>2.079625637910695</v>
+        <v>1.888797676218459</v>
       </c>
       <c r="G12">
-        <v>0.3751302653977078</v>
+        <v>0.2258291454875945</v>
       </c>
       <c r="H12">
-        <v>0.5420609367124314</v>
+        <v>0.2013795091796737</v>
       </c>
       <c r="I12">
-        <v>0.417930256288443</v>
+        <v>0.1586351915160336</v>
       </c>
       <c r="J12">
-        <v>0.03699401747990905</v>
+        <v>0.02302175548021168</v>
       </c>
       <c r="K12">
-        <v>0.3698236612328856</v>
+        <v>1.194979498650298</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5186192205147293</v>
+        <v>1.061089855364436</v>
       </c>
       <c r="N12">
-        <v>1.283759666410507</v>
+        <v>0.5695889332857469</v>
       </c>
       <c r="O12">
-        <v>1.775564757228665</v>
+        <v>0.8506112973312554</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3618133524437894</v>
+        <v>1.153692681170469</v>
       </c>
       <c r="C13">
-        <v>0.05669650789555192</v>
+        <v>0.1446469858512103</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6399687486880339</v>
+        <v>0.7691403239820289</v>
       </c>
       <c r="F13">
-        <v>2.078352683576554</v>
+        <v>1.880838446982366</v>
       </c>
       <c r="G13">
-        <v>0.375203011026791</v>
+        <v>0.2253447084516722</v>
       </c>
       <c r="H13">
-        <v>0.5422525639315552</v>
+        <v>0.2014318107803916</v>
       </c>
       <c r="I13">
-        <v>0.4181486912223136</v>
+        <v>0.1587895310962644</v>
       </c>
       <c r="J13">
-        <v>0.03699292608868276</v>
+        <v>0.02301317636373312</v>
       </c>
       <c r="K13">
-        <v>0.3679145181730803</v>
+        <v>1.188866790186296</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5171163839783617</v>
+        <v>1.055363762954784</v>
       </c>
       <c r="N13">
-        <v>1.284382313564919</v>
+        <v>0.5709807972484136</v>
       </c>
       <c r="O13">
-        <v>1.776109708950116</v>
+        <v>0.8496774389023045</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3557044423199613</v>
+        <v>1.133969431945189</v>
       </c>
       <c r="C14">
-        <v>0.05602980554428427</v>
+        <v>0.142545957073537</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6373675152396174</v>
+        <v>0.7568103569017666</v>
       </c>
       <c r="F14">
-        <v>2.074228515880023</v>
+        <v>1.854971479606846</v>
       </c>
       <c r="G14">
-        <v>0.3754467080361579</v>
+        <v>0.2237850890340383</v>
       </c>
       <c r="H14">
-        <v>0.542882907900605</v>
+        <v>0.2016140329610181</v>
       </c>
       <c r="I14">
-        <v>0.4188665988963685</v>
+        <v>0.1593067276644398</v>
       </c>
       <c r="J14">
-        <v>0.03698949177385913</v>
+        <v>0.0229854409289203</v>
       </c>
       <c r="K14">
-        <v>0.3616862149170004</v>
+        <v>1.16893550374354</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5122191358255606</v>
+        <v>1.036710630106477</v>
       </c>
       <c r="N14">
-        <v>1.286423707736688</v>
+        <v>0.5755461614130155</v>
       </c>
       <c r="O14">
-        <v>1.777911752639881</v>
+        <v>0.8466990625287139</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3519613922719316</v>
+        <v>1.121891261992062</v>
       </c>
       <c r="C15">
-        <v>0.05562113666817936</v>
+        <v>0.1412593479776802</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6357796838535705</v>
+        <v>0.749278486160307</v>
       </c>
       <c r="F15">
-        <v>2.071723257507074</v>
+        <v>1.839195379254164</v>
       </c>
       <c r="G15">
-        <v>0.3756009408164118</v>
+        <v>0.2228451693403173</v>
       </c>
       <c r="H15">
-        <v>0.543273166396915</v>
+        <v>0.2017345381704487</v>
       </c>
       <c r="I15">
-        <v>0.4193105978259872</v>
+        <v>0.1596340917899397</v>
       </c>
       <c r="J15">
-        <v>0.03698748425929566</v>
+        <v>0.0229686382898624</v>
       </c>
       <c r="K15">
-        <v>0.3578695392448878</v>
+        <v>1.156729642450728</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5092223771690669</v>
+        <v>1.025300831139354</v>
       </c>
       <c r="N15">
-        <v>1.287682424738314</v>
+        <v>0.578362582982102</v>
       </c>
       <c r="O15">
-        <v>1.77903464140573</v>
+        <v>0.8449258383064233</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3304940157851206</v>
+        <v>1.052715543702533</v>
       </c>
       <c r="C16">
-        <v>0.05327474474900384</v>
+        <v>0.1338907217275676</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6267648238295322</v>
+        <v>0.7064199633582007</v>
       </c>
       <c r="F16">
-        <v>2.057687279737607</v>
+        <v>1.749799385971158</v>
       </c>
       <c r="G16">
-        <v>0.3765607932472008</v>
+        <v>0.2176884254386735</v>
       </c>
       <c r="H16">
-        <v>0.545573282784531</v>
+        <v>0.2025586149610277</v>
       </c>
       <c r="I16">
-        <v>0.4219202554565129</v>
+        <v>0.1616685710585202</v>
       </c>
       <c r="J16">
-        <v>0.03697745670934616</v>
+        <v>0.02287517923959292</v>
       </c>
       <c r="K16">
-        <v>0.3359726627035968</v>
+        <v>1.086817907250605</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4920945611745253</v>
+        <v>0.9601466451371081</v>
       </c>
       <c r="N16">
-        <v>1.295022912824891</v>
+        <v>0.5948039586175682</v>
       </c>
       <c r="O16">
-        <v>1.785761952151987</v>
+        <v>0.8355284696191063</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3173093271697667</v>
+        <v>1.010308438854963</v>
       </c>
       <c r="C17">
-        <v>0.05183135580946896</v>
+        <v>0.1293735329844878</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6213098528073857</v>
+        <v>0.6803858288326126</v>
       </c>
       <c r="F17">
-        <v>2.049362886905357</v>
+        <v>1.69582311220816</v>
       </c>
       <c r="G17">
-        <v>0.3772174135227573</v>
+        <v>0.2147229972011289</v>
       </c>
       <c r="H17">
-        <v>0.5470411987081292</v>
+        <v>0.2031803877991436</v>
       </c>
       <c r="I17">
-        <v>0.423579433656613</v>
+        <v>0.1630543910736151</v>
       </c>
       <c r="J17">
-        <v>0.03697262686115188</v>
+        <v>0.02282034643021547</v>
       </c>
       <c r="K17">
-        <v>0.3225177122496916</v>
+        <v>1.043955214546941</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4816279511189521</v>
+        <v>0.920370755137597</v>
       </c>
       <c r="N17">
-        <v>1.299639659187768</v>
+        <v>0.6051540032962386</v>
       </c>
       <c r="O17">
-        <v>1.790149898314198</v>
+        <v>0.8304250056240789</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.309720450542784</v>
+        <v>0.9859259999257404</v>
       </c>
       <c r="C18">
-        <v>0.05099971977332984</v>
+        <v>0.1267762776035823</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6182000207545855</v>
+        <v>0.6655016607345203</v>
       </c>
       <c r="F18">
-        <v>2.044680145339782</v>
+        <v>1.665081317868868</v>
       </c>
       <c r="G18">
-        <v>0.3776199777121079</v>
+        <v>0.2130875266813206</v>
       </c>
       <c r="H18">
-        <v>0.5479064145928092</v>
+        <v>0.2035796029265668</v>
       </c>
       <c r="I18">
-        <v>0.4245551464446464</v>
+        <v>0.1639006633905673</v>
       </c>
       <c r="J18">
-        <v>0.03697033619242518</v>
+        <v>0.02278971792764217</v>
       </c>
       <c r="K18">
-        <v>0.3147708925216079</v>
+        <v>1.019309142692862</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4756229053727168</v>
+        <v>0.8975594841618957</v>
       </c>
       <c r="N18">
-        <v>1.302336840120944</v>
+        <v>0.6112019496964933</v>
       </c>
       <c r="O18">
-        <v>1.792769616606833</v>
+        <v>0.8277248091912952</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3071500777117535</v>
+        <v>0.977671886849663</v>
       </c>
       <c r="C19">
-        <v>0.05071789683171346</v>
+        <v>0.1258970231093599</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.6171518494240615</v>
+        <v>0.6604771380948051</v>
       </c>
       <c r="F19">
-        <v>2.043112726691405</v>
+        <v>1.654723575056963</v>
       </c>
       <c r="G19">
-        <v>0.377760552997799</v>
+        <v>0.2125455920193744</v>
       </c>
       <c r="H19">
-        <v>0.5482029540259177</v>
+        <v>0.2037218086335955</v>
       </c>
       <c r="I19">
-        <v>0.4248891805917765</v>
+        <v>0.164195511366902</v>
       </c>
       <c r="J19">
-        <v>0.03696964446225692</v>
+        <v>0.02277950304749154</v>
       </c>
       <c r="K19">
-        <v>0.312146613773109</v>
+        <v>1.010965486024276</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4735922977013445</v>
+        <v>0.8898470262333902</v>
       </c>
       <c r="N19">
-        <v>1.303257230423871</v>
+        <v>0.613265783082003</v>
       </c>
       <c r="O19">
-        <v>1.793673075699914</v>
+        <v>0.8268502264791522</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3187134218159997</v>
+        <v>1.014821771165032</v>
       </c>
       <c r="C20">
-        <v>0.05198515610076981</v>
+        <v>0.1298542950208912</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6218876752516991</v>
+        <v>0.6831477861746293</v>
       </c>
       <c r="F20">
-        <v>2.050238142874377</v>
+        <v>1.701537211978646</v>
       </c>
       <c r="G20">
-        <v>0.3771449384190291</v>
+        <v>0.2150313520511702</v>
       </c>
       <c r="H20">
-        <v>0.5468827727332481</v>
+        <v>0.2031098698675464</v>
       </c>
       <c r="I20">
-        <v>0.4234005966483707</v>
+        <v>0.1629017459065274</v>
       </c>
       <c r="J20">
-        <v>0.03697309060584075</v>
+        <v>0.02282608909988681</v>
       </c>
       <c r="K20">
-        <v>0.3239508349083451</v>
+        <v>1.048517207494598</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4827405819421315</v>
+        <v>0.924597955386858</v>
       </c>
       <c r="N20">
-        <v>1.299143877745891</v>
+        <v>0.6040423583031753</v>
       </c>
       <c r="O20">
-        <v>1.789672869622052</v>
+        <v>0.8309437619543587</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3574990213109857</v>
+        <v>1.139762014213119</v>
       </c>
       <c r="C21">
-        <v>0.05622569363448804</v>
+        <v>0.143163009387024</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6381304146997877</v>
+        <v>0.7604276469405562</v>
       </c>
       <c r="F21">
-        <v>2.075435525802732</v>
+        <v>1.862554946223185</v>
       </c>
       <c r="G21">
-        <v>0.3753740942930648</v>
+        <v>0.224239963892515</v>
       </c>
       <c r="H21">
-        <v>0.5426968948361122</v>
+        <v>0.2015586508303713</v>
       </c>
       <c r="I21">
-        <v>0.4186548442554496</v>
+        <v>0.1591526040888454</v>
       </c>
       <c r="J21">
-        <v>0.03699048049663034</v>
+        <v>0.02299354865741954</v>
       </c>
       <c r="K21">
-        <v>0.3635159654625681</v>
+        <v>1.174789245694399</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5136569626509839</v>
+        <v>1.042186190969204</v>
       </c>
       <c r="N21">
-        <v>1.285822370234754</v>
+        <v>0.5742010222965206</v>
       </c>
       <c r="O21">
-        <v>1.777378471359128</v>
+        <v>0.8475631844191298</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3827959256472013</v>
+        <v>1.221541549554928</v>
       </c>
       <c r="C22">
-        <v>0.05898399484820516</v>
+        <v>0.1518751221880166</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6489921984821763</v>
+        <v>0.8118426766286291</v>
       </c>
       <c r="F22">
-        <v>2.092839621674187</v>
+        <v>1.970801851716658</v>
       </c>
       <c r="G22">
-        <v>0.3744387593880205</v>
+        <v>0.230940095742163</v>
       </c>
       <c r="H22">
-        <v>0.5401471599818919</v>
+        <v>0.2009396165204436</v>
       </c>
       <c r="I22">
-        <v>0.4157438640927111</v>
+        <v>0.1571713485953019</v>
       </c>
       <c r="J22">
-        <v>0.03700615142203034</v>
+        <v>0.02311129784999544</v>
       </c>
       <c r="K22">
-        <v>0.3893002200619549</v>
+        <v>1.257427168634933</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5339947745230944</v>
+        <v>1.119730880788666</v>
       </c>
       <c r="N22">
-        <v>1.277487680698336</v>
+        <v>0.555587690628748</v>
       </c>
       <c r="O22">
-        <v>1.770197532521479</v>
+        <v>0.8606912364111849</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3692994041991255</v>
+        <v>1.177880732007424</v>
       </c>
       <c r="C23">
-        <v>0.05751305589080857</v>
+        <v>0.1472237093733213</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6431725632277647</v>
+        <v>0.7843129990809814</v>
       </c>
       <c r="F23">
-        <v>2.083465114380445</v>
+        <v>1.912737350404527</v>
       </c>
       <c r="G23">
-        <v>0.3749176345733218</v>
+        <v>0.227298867077657</v>
       </c>
       <c r="H23">
-        <v>0.5414909949297737</v>
+        <v>0.2012326570260186</v>
       </c>
       <c r="I23">
-        <v>0.4172800601568873</v>
+        <v>0.1581843102663285</v>
       </c>
       <c r="J23">
-        <v>0.03699739523493406</v>
+        <v>0.0230476828794135</v>
       </c>
       <c r="K23">
-        <v>0.3755456093512635</v>
+        <v>1.213309201308959</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5231281069726492</v>
+        <v>1.078275293801305</v>
       </c>
       <c r="N23">
-        <v>1.281902056378481</v>
+        <v>0.5654383195156285</v>
       </c>
       <c r="O23">
-        <v>1.773951964865802</v>
+        <v>0.8534685421963957</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3180786580693393</v>
+        <v>1.012781300420528</v>
       </c>
       <c r="C24">
-        <v>0.05191562863180366</v>
+        <v>0.1296369433887747</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6216263597842868</v>
+        <v>0.6818988472578269</v>
       </c>
       <c r="F24">
-        <v>2.04984211860706</v>
+        <v>1.698952967858446</v>
       </c>
       <c r="G24">
-        <v>0.3771776263431548</v>
+        <v>0.214891729295914</v>
       </c>
       <c r="H24">
-        <v>0.546954330792353</v>
+        <v>0.2031416212488395</v>
       </c>
       <c r="I24">
-        <v>0.4234813808649349</v>
+        <v>0.1629706027993301</v>
       </c>
       <c r="J24">
-        <v>0.03697287943241001</v>
+        <v>0.02282349005157158</v>
       </c>
       <c r="K24">
-        <v>0.3233029555914015</v>
+        <v>1.04645474262324</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4822375230625866</v>
+        <v>0.9226866634986521</v>
       </c>
       <c r="N24">
-        <v>1.299367886741639</v>
+        <v>0.6045446295901407</v>
       </c>
       <c r="O24">
-        <v>1.789888232056725</v>
+        <v>0.8307085056850241</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2626246273538015</v>
+        <v>0.8350167726175926</v>
       </c>
       <c r="C25">
-        <v>0.04582314262491138</v>
+        <v>0.1106986860811361</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5994454739745123</v>
+        <v>0.5748150076298089</v>
       </c>
       <c r="F25">
-        <v>2.017597699561151</v>
+        <v>1.479816978335549</v>
       </c>
       <c r="G25">
-        <v>0.3805669090216526</v>
+        <v>0.2041618581856071</v>
       </c>
       <c r="H25">
-        <v>0.5536469729351978</v>
+        <v>0.2067781834029319</v>
       </c>
       <c r="I25">
-        <v>0.4309885222247338</v>
+        <v>0.169997790940549</v>
       </c>
       <c r="J25">
-        <v>0.03696508657959541</v>
+        <v>0.02261634129010659</v>
       </c>
       <c r="K25">
-        <v>0.266651154054756</v>
+        <v>0.8667353682862995</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4387076486925992</v>
+        <v>0.7573616929920632</v>
       </c>
       <c r="N25">
-        <v>1.319803939894804</v>
+        <v>0.6503312730742046</v>
       </c>
       <c r="O25">
-        <v>1.81074387181603</v>
+        <v>0.8150610518885486</v>
       </c>
     </row>
   </sheetData>
